--- a/dummy_dataset.xlsx
+++ b/dummy_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ujjawal\Downloads\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AED37151-493A-4886-9291-B5198F3C8976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D038B438-C04B-4FB4-B243-2F37C410CB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Year</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>SPI</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -861,15 +867,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F253"/>
+  <dimension ref="A1:H253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -888,8 +894,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -908,8 +920,14 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>69.75</v>
+      </c>
+      <c r="H2">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -928,8 +946,14 @@
       <c r="F3">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>69.75</v>
+      </c>
+      <c r="H3">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -948,8 +972,14 @@
       <c r="F4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>69.75</v>
+      </c>
+      <c r="H4">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -968,8 +998,14 @@
       <c r="F5">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>69.75</v>
+      </c>
+      <c r="H5">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2000</v>
       </c>
@@ -988,8 +1024,14 @@
       <c r="F6">
         <v>271.14</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>69.75</v>
+      </c>
+      <c r="H6">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -1008,8 +1050,14 @@
       <c r="F7">
         <v>313.67</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>69.75</v>
+      </c>
+      <c r="H7">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1028,8 +1076,14 @@
       <c r="F8">
         <v>820.45</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>69.75</v>
+      </c>
+      <c r="H8">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2000</v>
       </c>
@@ -1048,8 +1102,14 @@
       <c r="F9">
         <v>362.38</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>69.75</v>
+      </c>
+      <c r="H9">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -1068,8 +1128,14 @@
       <c r="F10">
         <v>97.85</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>69.75</v>
+      </c>
+      <c r="H10">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2000</v>
       </c>
@@ -1088,8 +1154,14 @@
       <c r="F11">
         <v>63.41</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>69.75</v>
+      </c>
+      <c r="H11">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -1108,8 +1180,14 @@
       <c r="F12">
         <v>4.37</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>69.75</v>
+      </c>
+      <c r="H12">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2000</v>
       </c>
@@ -1128,8 +1206,14 @@
       <c r="F13">
         <v>11.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>69.75</v>
+      </c>
+      <c r="H13">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2001</v>
       </c>
@@ -1148,8 +1232,14 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>69.75</v>
+      </c>
+      <c r="H14">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2001</v>
       </c>
@@ -1168,8 +1258,14 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <v>69.75</v>
+      </c>
+      <c r="H15">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2001</v>
       </c>
@@ -1188,8 +1284,14 @@
       <c r="F16">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>69.75</v>
+      </c>
+      <c r="H16">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2001</v>
       </c>
@@ -1208,8 +1310,14 @@
       <c r="F17">
         <v>1.57</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>69.75</v>
+      </c>
+      <c r="H17">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2001</v>
       </c>
@@ -1228,8 +1336,14 @@
       <c r="F18">
         <v>29.11</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>69.75</v>
+      </c>
+      <c r="H18">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2001</v>
       </c>
@@ -1248,8 +1362,14 @@
       <c r="F19">
         <v>510.09</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>69.75</v>
+      </c>
+      <c r="H19">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2001</v>
       </c>
@@ -1268,8 +1388,14 @@
       <c r="F20">
         <v>622.30999999999995</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>69.75</v>
+      </c>
+      <c r="H20">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2001</v>
       </c>
@@ -1288,8 +1414,14 @@
       <c r="F21">
         <v>429.62</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <v>69.75</v>
+      </c>
+      <c r="H21">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2001</v>
       </c>
@@ -1308,8 +1440,14 @@
       <c r="F22">
         <v>155.88</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <v>69.75</v>
+      </c>
+      <c r="H22">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2001</v>
       </c>
@@ -1328,8 +1466,14 @@
       <c r="F23">
         <v>120.24</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <v>69.75</v>
+      </c>
+      <c r="H23">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2001</v>
       </c>
@@ -1348,8 +1492,14 @@
       <c r="F24">
         <v>6.15</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24">
+        <v>69.75</v>
+      </c>
+      <c r="H24">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2001</v>
       </c>
@@ -1368,8 +1518,14 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <v>69.75</v>
+      </c>
+      <c r="H25">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2002</v>
       </c>
@@ -1388,8 +1544,14 @@
       <c r="F26">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <v>69.75</v>
+      </c>
+      <c r="H26">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -1408,8 +1570,14 @@
       <c r="F27">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27">
+        <v>69.75</v>
+      </c>
+      <c r="H27">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2002</v>
       </c>
@@ -1428,8 +1596,14 @@
       <c r="F28">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28">
+        <v>69.75</v>
+      </c>
+      <c r="H28">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2002</v>
       </c>
@@ -1448,8 +1622,14 @@
       <c r="F29">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29">
+        <v>69.75</v>
+      </c>
+      <c r="H29">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2002</v>
       </c>
@@ -1468,8 +1648,14 @@
       <c r="F30">
         <v>8.6300000000000008</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30">
+        <v>69.75</v>
+      </c>
+      <c r="H30">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2002</v>
       </c>
@@ -1488,8 +1674,14 @@
       <c r="F31">
         <v>498.92</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31">
+        <v>69.75</v>
+      </c>
+      <c r="H31">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2002</v>
       </c>
@@ -1508,8 +1700,14 @@
       <c r="F32">
         <v>126.77</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32">
+        <v>69.75</v>
+      </c>
+      <c r="H32">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2002</v>
       </c>
@@ -1528,8 +1726,14 @@
       <c r="F33">
         <v>581.79</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33">
+        <v>69.75</v>
+      </c>
+      <c r="H33">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2002</v>
       </c>
@@ -1548,8 +1752,14 @@
       <c r="F34">
         <v>87.71</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34">
+        <v>69.75</v>
+      </c>
+      <c r="H34">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2002</v>
       </c>
@@ -1568,8 +1778,14 @@
       <c r="F35">
         <v>17.29</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35">
+        <v>69.75</v>
+      </c>
+      <c r="H35">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2002</v>
       </c>
@@ -1588,8 +1804,14 @@
       <c r="F36">
         <v>2.59</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G36">
+        <v>69.75</v>
+      </c>
+      <c r="H36">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2002</v>
       </c>
@@ -1608,8 +1830,14 @@
       <c r="F37">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37">
+        <v>69.75</v>
+      </c>
+      <c r="H37">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2003</v>
       </c>
@@ -1628,8 +1856,14 @@
       <c r="F38">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38">
+        <v>69.75</v>
+      </c>
+      <c r="H38">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2003</v>
       </c>
@@ -1648,8 +1882,14 @@
       <c r="F39">
         <v>8.41</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G39">
+        <v>69.75</v>
+      </c>
+      <c r="H39">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2003</v>
       </c>
@@ -1668,8 +1908,14 @@
       <c r="F40">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40">
+        <v>69.75</v>
+      </c>
+      <c r="H40">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2003</v>
       </c>
@@ -1688,8 +1934,14 @@
       <c r="F41">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G41">
+        <v>69.75</v>
+      </c>
+      <c r="H41">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2003</v>
       </c>
@@ -1708,8 +1960,14 @@
       <c r="F42">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G42">
+        <v>69.75</v>
+      </c>
+      <c r="H42">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2003</v>
       </c>
@@ -1728,8 +1986,14 @@
       <c r="F43">
         <v>710.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G43">
+        <v>69.75</v>
+      </c>
+      <c r="H43">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2003</v>
       </c>
@@ -1748,8 +2012,14 @@
       <c r="F44">
         <v>584.85</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G44">
+        <v>69.75</v>
+      </c>
+      <c r="H44">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2003</v>
       </c>
@@ -1768,8 +2038,14 @@
       <c r="F45">
         <v>380.55</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G45">
+        <v>69.75</v>
+      </c>
+      <c r="H45">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2003</v>
       </c>
@@ -1788,8 +2064,14 @@
       <c r="F46">
         <v>233.14</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G46">
+        <v>69.75</v>
+      </c>
+      <c r="H46">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2003</v>
       </c>
@@ -1808,8 +2090,14 @@
       <c r="F47">
         <v>50.96</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47">
+        <v>69.75</v>
+      </c>
+      <c r="H47">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2003</v>
       </c>
@@ -1828,8 +2116,14 @@
       <c r="F48">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G48">
+        <v>69.75</v>
+      </c>
+      <c r="H48">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2003</v>
       </c>
@@ -1848,8 +2142,14 @@
       <c r="F49">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49">
+        <v>69.75</v>
+      </c>
+      <c r="H49">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2004</v>
       </c>
@@ -1868,8 +2168,14 @@
       <c r="F50">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G50">
+        <v>69.75</v>
+      </c>
+      <c r="H50">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2004</v>
       </c>
@@ -1888,8 +2194,14 @@
       <c r="F51">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G51">
+        <v>69.75</v>
+      </c>
+      <c r="H51">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2004</v>
       </c>
@@ -1908,8 +2220,14 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G52">
+        <v>69.75</v>
+      </c>
+      <c r="H52">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2004</v>
       </c>
@@ -1928,8 +2246,14 @@
       <c r="F53">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G53">
+        <v>69.75</v>
+      </c>
+      <c r="H53">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2004</v>
       </c>
@@ -1948,8 +2272,14 @@
       <c r="F54">
         <v>92.28</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G54">
+        <v>69.75</v>
+      </c>
+      <c r="H54">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2004</v>
       </c>
@@ -1968,8 +2298,14 @@
       <c r="F55">
         <v>376.96</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G55">
+        <v>69.75</v>
+      </c>
+      <c r="H55">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2004</v>
       </c>
@@ -1988,8 +2324,14 @@
       <c r="F56">
         <v>663.26</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G56">
+        <v>69.75</v>
+      </c>
+      <c r="H56">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2004</v>
       </c>
@@ -2008,8 +2350,14 @@
       <c r="F57">
         <v>949.59</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G57">
+        <v>69.75</v>
+      </c>
+      <c r="H57">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2004</v>
       </c>
@@ -2028,8 +2376,14 @@
       <c r="F58">
         <v>225.06</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G58">
+        <v>69.75</v>
+      </c>
+      <c r="H58">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2004</v>
       </c>
@@ -2048,8 +2402,14 @@
       <c r="F59">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G59">
+        <v>69.75</v>
+      </c>
+      <c r="H59">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2004</v>
       </c>
@@ -2068,8 +2428,14 @@
       <c r="F60">
         <v>4.29</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G60">
+        <v>69.75</v>
+      </c>
+      <c r="H60">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2004</v>
       </c>
@@ -2088,8 +2454,14 @@
       <c r="F61">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G61">
+        <v>69.75</v>
+      </c>
+      <c r="H61">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2005</v>
       </c>
@@ -2108,8 +2480,14 @@
       <c r="F62">
         <v>3.47</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G62">
+        <v>69.75</v>
+      </c>
+      <c r="H62">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2005</v>
       </c>
@@ -2128,8 +2506,14 @@
       <c r="F63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G63">
+        <v>69.75</v>
+      </c>
+      <c r="H63">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2005</v>
       </c>
@@ -2148,8 +2532,14 @@
       <c r="F64">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G64">
+        <v>69.75</v>
+      </c>
+      <c r="H64">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2005</v>
       </c>
@@ -2168,8 +2558,14 @@
       <c r="F65">
         <v>13.56</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G65">
+        <v>69.75</v>
+      </c>
+      <c r="H65">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2005</v>
       </c>
@@ -2188,8 +2584,14 @@
       <c r="F66">
         <v>15.65</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G66">
+        <v>69.75</v>
+      </c>
+      <c r="H66">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2005</v>
       </c>
@@ -2208,8 +2610,14 @@
       <c r="F67">
         <v>799.32</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G67">
+        <v>69.75</v>
+      </c>
+      <c r="H67">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2005</v>
       </c>
@@ -2228,8 +2636,14 @@
       <c r="F68">
         <v>1095.3800000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G68">
+        <v>69.75</v>
+      </c>
+      <c r="H68">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2005</v>
       </c>
@@ -2248,8 +2662,14 @@
       <c r="F69">
         <v>432.24</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G69">
+        <v>69.75</v>
+      </c>
+      <c r="H69">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>2005</v>
       </c>
@@ -2268,8 +2688,14 @@
       <c r="F70">
         <v>776.41</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G70">
+        <v>69.75</v>
+      </c>
+      <c r="H70">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2005</v>
       </c>
@@ -2288,8 +2714,14 @@
       <c r="F71">
         <v>75.44</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G71">
+        <v>69.75</v>
+      </c>
+      <c r="H71">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2005</v>
       </c>
@@ -2308,8 +2740,14 @@
       <c r="F72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G72">
+        <v>69.75</v>
+      </c>
+      <c r="H72">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2005</v>
       </c>
@@ -2328,8 +2766,14 @@
       <c r="F73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G73">
+        <v>69.75</v>
+      </c>
+      <c r="H73">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2006</v>
       </c>
@@ -2348,8 +2792,14 @@
       <c r="F74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G74">
+        <v>69.75</v>
+      </c>
+      <c r="H74">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2006</v>
       </c>
@@ -2368,8 +2818,14 @@
       <c r="F75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G75">
+        <v>69.75</v>
+      </c>
+      <c r="H75">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2006</v>
       </c>
@@ -2388,8 +2844,14 @@
       <c r="F76">
         <v>9.61</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G76">
+        <v>69.75</v>
+      </c>
+      <c r="H76">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2006</v>
       </c>
@@ -2408,8 +2870,14 @@
       <c r="F77">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G77">
+        <v>69.75</v>
+      </c>
+      <c r="H77">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2006</v>
       </c>
@@ -2428,8 +2896,14 @@
       <c r="F78">
         <v>187.67</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G78">
+        <v>69.75</v>
+      </c>
+      <c r="H78">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2006</v>
       </c>
@@ -2448,8 +2922,14 @@
       <c r="F79">
         <v>441.71</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G79">
+        <v>69.75</v>
+      </c>
+      <c r="H79">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2006</v>
       </c>
@@ -2468,8 +2948,14 @@
       <c r="F80">
         <v>1122.56</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G80">
+        <v>69.75</v>
+      </c>
+      <c r="H80">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>2006</v>
       </c>
@@ -2488,8 +2974,14 @@
       <c r="F81">
         <v>1052.6500000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G81">
+        <v>69.75</v>
+      </c>
+      <c r="H81">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>2006</v>
       </c>
@@ -2508,8 +3000,14 @@
       <c r="F82">
         <v>389.08</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G82">
+        <v>69.75</v>
+      </c>
+      <c r="H82">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2006</v>
       </c>
@@ -2528,8 +3026,14 @@
       <c r="F83">
         <v>142.46</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G83">
+        <v>69.75</v>
+      </c>
+      <c r="H83">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2006</v>
       </c>
@@ -2548,8 +3052,14 @@
       <c r="F84">
         <v>24.05</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G84">
+        <v>69.75</v>
+      </c>
+      <c r="H84">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>2006</v>
       </c>
@@ -2568,8 +3078,14 @@
       <c r="F85">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G85">
+        <v>69.75</v>
+      </c>
+      <c r="H85">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>2007</v>
       </c>
@@ -2588,8 +3104,14 @@
       <c r="F86">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G86">
+        <v>69.75</v>
+      </c>
+      <c r="H86">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2007</v>
       </c>
@@ -2608,8 +3130,14 @@
       <c r="F87">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G87">
+        <v>69.75</v>
+      </c>
+      <c r="H87">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2007</v>
       </c>
@@ -2628,8 +3156,14 @@
       <c r="F88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G88">
+        <v>69.75</v>
+      </c>
+      <c r="H88">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2007</v>
       </c>
@@ -2648,8 +3182,14 @@
       <c r="F89">
         <v>8.4700000000000006</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G89">
+        <v>69.75</v>
+      </c>
+      <c r="H89">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2007</v>
       </c>
@@ -2668,8 +3208,14 @@
       <c r="F90">
         <v>5.13</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G90">
+        <v>69.75</v>
+      </c>
+      <c r="H90">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2007</v>
       </c>
@@ -2688,8 +3234,14 @@
       <c r="F91">
         <v>902.25</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G91">
+        <v>69.75</v>
+      </c>
+      <c r="H91">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>2007</v>
       </c>
@@ -2708,8 +3260,14 @@
       <c r="F92">
         <v>706.04</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G92">
+        <v>69.75</v>
+      </c>
+      <c r="H92">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>2007</v>
       </c>
@@ -2728,8 +3286,14 @@
       <c r="F93">
         <v>609.34</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G93">
+        <v>69.75</v>
+      </c>
+      <c r="H93">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>2007</v>
       </c>
@@ -2748,8 +3312,14 @@
       <c r="F94">
         <v>449.85</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G94">
+        <v>69.75</v>
+      </c>
+      <c r="H94">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>2007</v>
       </c>
@@ -2768,8 +3338,14 @@
       <c r="F95">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G95">
+        <v>69.75</v>
+      </c>
+      <c r="H95">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>2007</v>
       </c>
@@ -2788,8 +3364,14 @@
       <c r="F96">
         <v>7.12</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G96">
+        <v>69.75</v>
+      </c>
+      <c r="H96">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2007</v>
       </c>
@@ -2808,8 +3390,14 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G97">
+        <v>69.75</v>
+      </c>
+      <c r="H97">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>2008</v>
       </c>
@@ -2828,8 +3416,14 @@
       <c r="F98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G98">
+        <v>69.75</v>
+      </c>
+      <c r="H98">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>2008</v>
       </c>
@@ -2848,8 +3442,14 @@
       <c r="F99">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G99">
+        <v>69.75</v>
+      </c>
+      <c r="H99">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>2008</v>
       </c>
@@ -2868,8 +3468,14 @@
       <c r="F100">
         <v>6.91</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G100">
+        <v>69.75</v>
+      </c>
+      <c r="H100">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>2008</v>
       </c>
@@ -2888,8 +3494,14 @@
       <c r="F101">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G101">
+        <v>69.75</v>
+      </c>
+      <c r="H101">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>2008</v>
       </c>
@@ -2908,8 +3520,14 @@
       <c r="F102">
         <v>3.31</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G102">
+        <v>69.75</v>
+      </c>
+      <c r="H102">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>2008</v>
       </c>
@@ -2928,8 +3546,14 @@
       <c r="F103">
         <v>708.11</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G103">
+        <v>69.75</v>
+      </c>
+      <c r="H103">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>2008</v>
       </c>
@@ -2948,8 +3572,14 @@
       <c r="F104">
         <v>627.03</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G104">
+        <v>69.75</v>
+      </c>
+      <c r="H104">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>2008</v>
       </c>
@@ -2968,8 +3598,14 @@
       <c r="F105">
         <v>698.05</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G105">
+        <v>69.75</v>
+      </c>
+      <c r="H105">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>2008</v>
       </c>
@@ -2988,8 +3624,14 @@
       <c r="F106">
         <v>513.22</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G106">
+        <v>69.75</v>
+      </c>
+      <c r="H106">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>2008</v>
       </c>
@@ -3008,8 +3650,14 @@
       <c r="F107">
         <v>36.19</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G107">
+        <v>69.75</v>
+      </c>
+      <c r="H107">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>2008</v>
       </c>
@@ -3028,8 +3676,14 @@
       <c r="F108">
         <v>2.71</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G108">
+        <v>69.75</v>
+      </c>
+      <c r="H108">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>2008</v>
       </c>
@@ -3048,8 +3702,14 @@
       <c r="F109">
         <v>6.76</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G109">
+        <v>69.75</v>
+      </c>
+      <c r="H109">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>2009</v>
       </c>
@@ -3068,8 +3728,14 @@
       <c r="F110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G110">
+        <v>69.75</v>
+      </c>
+      <c r="H110">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>2009</v>
       </c>
@@ -3088,8 +3754,14 @@
       <c r="F111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G111">
+        <v>69.75</v>
+      </c>
+      <c r="H111">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>2009</v>
       </c>
@@ -3108,8 +3780,14 @@
       <c r="F112">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G112">
+        <v>69.75</v>
+      </c>
+      <c r="H112">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>2009</v>
       </c>
@@ -3128,8 +3806,14 @@
       <c r="F113">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G113">
+        <v>69.75</v>
+      </c>
+      <c r="H113">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>2009</v>
       </c>
@@ -3148,8 +3832,14 @@
       <c r="F114">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G114">
+        <v>69.75</v>
+      </c>
+      <c r="H114">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>2009</v>
       </c>
@@ -3168,8 +3858,14 @@
       <c r="F115">
         <v>221.99</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G115">
+        <v>69.75</v>
+      </c>
+      <c r="H115">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>2009</v>
       </c>
@@ -3188,8 +3884,14 @@
       <c r="F116">
         <v>1052.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G116">
+        <v>69.75</v>
+      </c>
+      <c r="H116">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>2009</v>
       </c>
@@ -3208,8 +3910,14 @@
       <c r="F117">
         <v>403.09</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G117">
+        <v>69.75</v>
+      </c>
+      <c r="H117">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>2009</v>
       </c>
@@ -3228,8 +3936,14 @@
       <c r="F118">
         <v>277.45</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G118">
+        <v>69.75</v>
+      </c>
+      <c r="H118">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>2009</v>
       </c>
@@ -3248,8 +3962,14 @@
       <c r="F119">
         <v>206.96</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G119">
+        <v>69.75</v>
+      </c>
+      <c r="H119">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>2009</v>
       </c>
@@ -3268,8 +3988,14 @@
       <c r="F120">
         <v>109.36</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G120">
+        <v>69.75</v>
+      </c>
+      <c r="H120">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>2009</v>
       </c>
@@ -3288,8 +4014,14 @@
       <c r="F121">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G121">
+        <v>69.75</v>
+      </c>
+      <c r="H121">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>2010</v>
       </c>
@@ -3308,8 +4040,14 @@
       <c r="F122">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G122">
+        <v>69.75</v>
+      </c>
+      <c r="H122">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>2010</v>
       </c>
@@ -3328,8 +4066,14 @@
       <c r="F123">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G123">
+        <v>69.75</v>
+      </c>
+      <c r="H123">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>2010</v>
       </c>
@@ -3348,8 +4092,14 @@
       <c r="F124">
         <v>6.02</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G124">
+        <v>69.75</v>
+      </c>
+      <c r="H124">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>2010</v>
       </c>
@@ -3368,8 +4118,14 @@
       <c r="F125">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G125">
+        <v>69.75</v>
+      </c>
+      <c r="H125">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>2010</v>
       </c>
@@ -3388,8 +4144,14 @@
       <c r="F126">
         <v>11.74</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G126">
+        <v>69.75</v>
+      </c>
+      <c r="H126">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>2010</v>
       </c>
@@ -3408,8 +4170,14 @@
       <c r="F127">
         <v>662.62</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G127">
+        <v>69.75</v>
+      </c>
+      <c r="H127">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>2010</v>
       </c>
@@ -3428,8 +4196,14 @@
       <c r="F128">
         <v>1068.2</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G128">
+        <v>69.75</v>
+      </c>
+      <c r="H128">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>2010</v>
       </c>
@@ -3448,8 +4222,14 @@
       <c r="F129">
         <v>872.43</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G129">
+        <v>69.75</v>
+      </c>
+      <c r="H129">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>2010</v>
       </c>
@@ -3468,8 +4248,14 @@
       <c r="F130">
         <v>248.55</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G130">
+        <v>69.75</v>
+      </c>
+      <c r="H130">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>2010</v>
       </c>
@@ -3488,8 +4274,14 @@
       <c r="F131">
         <v>195.25</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G131">
+        <v>69.75</v>
+      </c>
+      <c r="H131">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>2010</v>
       </c>
@@ -3508,8 +4300,14 @@
       <c r="F132">
         <v>65.66</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G132">
+        <v>69.75</v>
+      </c>
+      <c r="H132">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>2010</v>
       </c>
@@ -3528,8 +4326,14 @@
       <c r="F133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G133">
+        <v>69.75</v>
+      </c>
+      <c r="H133">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>2011</v>
       </c>
@@ -3548,8 +4352,14 @@
       <c r="F134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G134">
+        <v>69.75</v>
+      </c>
+      <c r="H134">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>2011</v>
       </c>
@@ -3568,8 +4378,14 @@
       <c r="F135">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G135">
+        <v>69.75</v>
+      </c>
+      <c r="H135">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>2011</v>
       </c>
@@ -3588,8 +4404,14 @@
       <c r="F136">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G136">
+        <v>69.75</v>
+      </c>
+      <c r="H136">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>2011</v>
       </c>
@@ -3608,8 +4430,14 @@
       <c r="F137">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G137">
+        <v>69.75</v>
+      </c>
+      <c r="H137">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>2011</v>
       </c>
@@ -3628,8 +4456,14 @@
       <c r="F138">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G138">
+        <v>69.75</v>
+      </c>
+      <c r="H138">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>2011</v>
       </c>
@@ -3648,8 +4482,14 @@
       <c r="F139">
         <v>350.5</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G139">
+        <v>69.75</v>
+      </c>
+      <c r="H139">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>2011</v>
       </c>
@@ -3668,8 +4508,14 @@
       <c r="F140">
         <v>1093.05</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G140">
+        <v>69.75</v>
+      </c>
+      <c r="H140">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>2011</v>
       </c>
@@ -3688,8 +4534,14 @@
       <c r="F141">
         <v>629.80999999999995</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G141">
+        <v>69.75</v>
+      </c>
+      <c r="H141">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>2011</v>
       </c>
@@ -3708,8 +4560,14 @@
       <c r="F142">
         <v>348.67</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G142">
+        <v>69.75</v>
+      </c>
+      <c r="H142">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>2011</v>
       </c>
@@ -3728,8 +4586,14 @@
       <c r="F143">
         <v>166.83</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G143">
+        <v>69.75</v>
+      </c>
+      <c r="H143">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>2011</v>
       </c>
@@ -3748,8 +4612,14 @@
       <c r="F144">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G144">
+        <v>69.75</v>
+      </c>
+      <c r="H144">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>2011</v>
       </c>
@@ -3768,8 +4638,14 @@
       <c r="F145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G145">
+        <v>69.75</v>
+      </c>
+      <c r="H145">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>2012</v>
       </c>
@@ -3788,8 +4664,14 @@
       <c r="F146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G146">
+        <v>69.75</v>
+      </c>
+      <c r="H146">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>2012</v>
       </c>
@@ -3808,8 +4690,14 @@
       <c r="F147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G147">
+        <v>69.75</v>
+      </c>
+      <c r="H147">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>2012</v>
       </c>
@@ -3828,8 +4716,14 @@
       <c r="F148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G148">
+        <v>69.75</v>
+      </c>
+      <c r="H148">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>2012</v>
       </c>
@@ -3848,8 +4742,14 @@
       <c r="F149">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G149">
+        <v>69.75</v>
+      </c>
+      <c r="H149">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>2012</v>
       </c>
@@ -3868,8 +4768,14 @@
       <c r="F150">
         <v>1.83</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G150">
+        <v>69.75</v>
+      </c>
+      <c r="H150">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>2012</v>
       </c>
@@ -3888,8 +4794,14 @@
       <c r="F151">
         <v>238.62</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G151">
+        <v>69.75</v>
+      </c>
+      <c r="H151">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>2012</v>
       </c>
@@ -3908,8 +4820,14 @@
       <c r="F152">
         <v>583.04999999999995</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G152">
+        <v>69.75</v>
+      </c>
+      <c r="H152">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>2012</v>
       </c>
@@ -3928,8 +4846,14 @@
       <c r="F153">
         <v>385.66</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G153">
+        <v>69.75</v>
+      </c>
+      <c r="H153">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>2012</v>
       </c>
@@ -3948,8 +4872,14 @@
       <c r="F154">
         <v>408.01</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G154">
+        <v>69.75</v>
+      </c>
+      <c r="H154">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>2012</v>
       </c>
@@ -3968,8 +4898,14 @@
       <c r="F155">
         <v>204.61</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G155">
+        <v>69.75</v>
+      </c>
+      <c r="H155">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>2012</v>
       </c>
@@ -3988,8 +4924,14 @@
       <c r="F156">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G156">
+        <v>69.75</v>
+      </c>
+      <c r="H156">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>2012</v>
       </c>
@@ -4008,8 +4950,14 @@
       <c r="F157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G157">
+        <v>69.75</v>
+      </c>
+      <c r="H157">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>2013</v>
       </c>
@@ -4028,8 +4976,14 @@
       <c r="F158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G158">
+        <v>69.75</v>
+      </c>
+      <c r="H158">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>2013</v>
       </c>
@@ -4048,8 +5002,14 @@
       <c r="F159">
         <v>6.72</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G159">
+        <v>69.75</v>
+      </c>
+      <c r="H159">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>2013</v>
       </c>
@@ -4068,8 +5028,14 @@
       <c r="F160">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G160">
+        <v>69.75</v>
+      </c>
+      <c r="H160">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>2013</v>
       </c>
@@ -4088,8 +5054,14 @@
       <c r="F161">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G161">
+        <v>69.75</v>
+      </c>
+      <c r="H161">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>2013</v>
       </c>
@@ -4108,8 +5080,14 @@
       <c r="F162">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G162">
+        <v>69.75</v>
+      </c>
+      <c r="H162">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>2013</v>
       </c>
@@ -4128,8 +5106,14 @@
       <c r="F163">
         <v>932.22</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G163">
+        <v>69.75</v>
+      </c>
+      <c r="H163">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>2013</v>
       </c>
@@ -4148,8 +5132,14 @@
       <c r="F164">
         <v>886.67</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G164">
+        <v>69.75</v>
+      </c>
+      <c r="H164">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>2013</v>
       </c>
@@ -4168,8 +5158,14 @@
       <c r="F165">
         <v>233.98</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G165">
+        <v>69.75</v>
+      </c>
+      <c r="H165">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>2013</v>
       </c>
@@ -4188,8 +5184,14 @@
       <c r="F166">
         <v>314.67</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G166">
+        <v>69.75</v>
+      </c>
+      <c r="H166">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>2013</v>
       </c>
@@ -4208,8 +5210,14 @@
       <c r="F167">
         <v>88.57</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G167">
+        <v>69.75</v>
+      </c>
+      <c r="H167">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>2013</v>
       </c>
@@ -4228,8 +5236,14 @@
       <c r="F168">
         <v>4.21</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G168">
+        <v>69.75</v>
+      </c>
+      <c r="H168">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>2013</v>
       </c>
@@ -4248,8 +5262,14 @@
       <c r="F169">
         <v>2.19</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G169">
+        <v>69.75</v>
+      </c>
+      <c r="H169">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>2014</v>
       </c>
@@ -4268,8 +5288,14 @@
       <c r="F170">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G170">
+        <v>69.75</v>
+      </c>
+      <c r="H170">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>2014</v>
       </c>
@@ -4288,8 +5314,14 @@
       <c r="F171">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G171">
+        <v>69.75</v>
+      </c>
+      <c r="H171">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>2014</v>
       </c>
@@ -4308,8 +5340,14 @@
       <c r="F172">
         <v>3.95</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G172">
+        <v>69.75</v>
+      </c>
+      <c r="H172">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>2014</v>
       </c>
@@ -4328,8 +5366,14 @@
       <c r="F173">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G173">
+        <v>69.75</v>
+      </c>
+      <c r="H173">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>2014</v>
       </c>
@@ -4348,8 +5392,14 @@
       <c r="F174">
         <v>12.83</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G174">
+        <v>69.75</v>
+      </c>
+      <c r="H174">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>2014</v>
       </c>
@@ -4368,8 +5418,14 @@
       <c r="F175">
         <v>75.97</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G175">
+        <v>69.75</v>
+      </c>
+      <c r="H175">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>2014</v>
       </c>
@@ -4388,8 +5444,14 @@
       <c r="F176">
         <v>1307.43</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G176">
+        <v>69.75</v>
+      </c>
+      <c r="H176">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>2014</v>
       </c>
@@ -4408,8 +5470,14 @@
       <c r="F177">
         <v>631.78</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G177">
+        <v>69.75</v>
+      </c>
+      <c r="H177">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>2014</v>
       </c>
@@ -4428,8 +5496,14 @@
       <c r="F178">
         <v>262.39999999999998</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G178">
+        <v>69.75</v>
+      </c>
+      <c r="H178">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>2014</v>
       </c>
@@ -4448,8 +5522,14 @@
       <c r="F179">
         <v>28.7</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G179">
+        <v>69.75</v>
+      </c>
+      <c r="H179">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>2014</v>
       </c>
@@ -4468,8 +5548,14 @@
       <c r="F180">
         <v>19.39</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G180">
+        <v>69.75</v>
+      </c>
+      <c r="H180">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>2014</v>
       </c>
@@ -4488,8 +5574,14 @@
       <c r="F181">
         <v>18.77</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G181">
+        <v>69.75</v>
+      </c>
+      <c r="H181">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>2015</v>
       </c>
@@ -4508,8 +5600,14 @@
       <c r="F182">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G182">
+        <v>69.75</v>
+      </c>
+      <c r="H182">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>2015</v>
       </c>
@@ -4528,8 +5626,14 @@
       <c r="F183">
         <v>11.77</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G183">
+        <v>69.75</v>
+      </c>
+      <c r="H183">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>2015</v>
       </c>
@@ -4548,8 +5652,14 @@
       <c r="F184">
         <v>40.270000000000003</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G184">
+        <v>69.75</v>
+      </c>
+      <c r="H184">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>2015</v>
       </c>
@@ -4568,8 +5678,14 @@
       <c r="F185">
         <v>1.82</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G185">
+        <v>69.75</v>
+      </c>
+      <c r="H185">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>2015</v>
       </c>
@@ -4588,8 +5704,14 @@
       <c r="F186">
         <v>33.979999999999997</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G186">
+        <v>69.75</v>
+      </c>
+      <c r="H186">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>2015</v>
       </c>
@@ -4608,8 +5730,14 @@
       <c r="F187">
         <v>804.68</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G187">
+        <v>69.75</v>
+      </c>
+      <c r="H187">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>2015</v>
       </c>
@@ -4628,8 +5756,14 @@
       <c r="F188">
         <v>281.76</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G188">
+        <v>69.75</v>
+      </c>
+      <c r="H188">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>2015</v>
       </c>
@@ -4648,8 +5782,14 @@
       <c r="F189">
         <v>122.29</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G189">
+        <v>69.75</v>
+      </c>
+      <c r="H189">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>2015</v>
       </c>
@@ -4668,8 +5808,14 @@
       <c r="F190">
         <v>307.95999999999998</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G190">
+        <v>69.75</v>
+      </c>
+      <c r="H190">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>2015</v>
       </c>
@@ -4688,8 +5834,14 @@
       <c r="F191">
         <v>72.069999999999993</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G191">
+        <v>69.75</v>
+      </c>
+      <c r="H191">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>2015</v>
       </c>
@@ -4708,8 +5860,14 @@
       <c r="F192">
         <v>29.46</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G192">
+        <v>69.75</v>
+      </c>
+      <c r="H192">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>2015</v>
       </c>
@@ -4728,8 +5886,14 @@
       <c r="F193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G193">
+        <v>69.75</v>
+      </c>
+      <c r="H193">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>2016</v>
       </c>
@@ -4748,8 +5912,14 @@
       <c r="F194">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G194">
+        <v>69.75</v>
+      </c>
+      <c r="H194">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>2016</v>
       </c>
@@ -4768,8 +5938,14 @@
       <c r="F195">
         <v>20.79</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G195">
+        <v>69.75</v>
+      </c>
+      <c r="H195">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>2016</v>
       </c>
@@ -4788,8 +5964,14 @@
       <c r="F196">
         <v>3.13</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G196">
+        <v>69.75</v>
+      </c>
+      <c r="H196">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>2016</v>
       </c>
@@ -4808,8 +5990,14 @@
       <c r="F197">
         <v>1.68</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G197">
+        <v>69.75</v>
+      </c>
+      <c r="H197">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>2016</v>
       </c>
@@ -4828,8 +6016,14 @@
       <c r="F198">
         <v>9.39</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G198">
+        <v>69.75</v>
+      </c>
+      <c r="H198">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>2016</v>
       </c>
@@ -4848,8 +6042,14 @@
       <c r="F199">
         <v>535.52</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G199">
+        <v>69.75</v>
+      </c>
+      <c r="H199">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>2016</v>
       </c>
@@ -4868,8 +6068,14 @@
       <c r="F200">
         <v>1009.4</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G200">
+        <v>69.75</v>
+      </c>
+      <c r="H200">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>2016</v>
       </c>
@@ -4888,8 +6094,14 @@
       <c r="F201">
         <v>684.2</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G201">
+        <v>69.75</v>
+      </c>
+      <c r="H201">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>2016</v>
       </c>
@@ -4908,8 +6120,14 @@
       <c r="F202">
         <v>606.37</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G202">
+        <v>69.75</v>
+      </c>
+      <c r="H202">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>2016</v>
       </c>
@@ -4928,8 +6146,14 @@
       <c r="F203">
         <v>100.44</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G203">
+        <v>69.75</v>
+      </c>
+      <c r="H203">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>2016</v>
       </c>
@@ -4948,8 +6172,14 @@
       <c r="F204">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G204">
+        <v>69.75</v>
+      </c>
+      <c r="H204">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>2016</v>
       </c>
@@ -4968,8 +6198,14 @@
       <c r="F205">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G205">
+        <v>69.75</v>
+      </c>
+      <c r="H205">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>2017</v>
       </c>
@@ -4988,8 +6224,14 @@
       <c r="F206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G206">
+        <v>69.75</v>
+      </c>
+      <c r="H206">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>2017</v>
       </c>
@@ -5008,8 +6250,14 @@
       <c r="F207">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G207">
+        <v>69.75</v>
+      </c>
+      <c r="H207">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>2017</v>
       </c>
@@ -5028,8 +6276,14 @@
       <c r="F208">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G208">
+        <v>69.75</v>
+      </c>
+      <c r="H208">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>2017</v>
       </c>
@@ -5048,8 +6302,14 @@
       <c r="F209">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G209">
+        <v>69.75</v>
+      </c>
+      <c r="H209">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>2017</v>
       </c>
@@ -5068,8 +6328,14 @@
       <c r="F210">
         <v>13.69</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G210">
+        <v>69.75</v>
+      </c>
+      <c r="H210">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>2017</v>
       </c>
@@ -5088,8 +6354,14 @@
       <c r="F211">
         <v>600.76</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G211">
+        <v>69.75</v>
+      </c>
+      <c r="H211">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>2017</v>
       </c>
@@ -5108,8 +6380,14 @@
       <c r="F212">
         <v>1012.11</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G212">
+        <v>69.75</v>
+      </c>
+      <c r="H212">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>2017</v>
       </c>
@@ -5128,8 +6406,14 @@
       <c r="F213">
         <v>665.17</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G213">
+        <v>69.75</v>
+      </c>
+      <c r="H213">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>2017</v>
       </c>
@@ -5148,8 +6432,14 @@
       <c r="F214">
         <v>472.09</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G214">
+        <v>69.75</v>
+      </c>
+      <c r="H214">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>2017</v>
       </c>
@@ -5168,8 +6458,14 @@
       <c r="F215">
         <v>135.57</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G215">
+        <v>69.75</v>
+      </c>
+      <c r="H215">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>2017</v>
       </c>
@@ -5188,8 +6484,14 @@
       <c r="F216">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G216">
+        <v>69.75</v>
+      </c>
+      <c r="H216">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>2017</v>
       </c>
@@ -5208,8 +6510,14 @@
       <c r="F217">
         <v>47.28</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G217">
+        <v>69.75</v>
+      </c>
+      <c r="H217">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>2018</v>
       </c>
@@ -5228,8 +6536,14 @@
       <c r="F218">
         <v>2.0699999999999998</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G218">
+        <v>69.75</v>
+      </c>
+      <c r="H218">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>2018</v>
       </c>
@@ -5248,8 +6562,14 @@
       <c r="F219">
         <v>6.42</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G219">
+        <v>69.75</v>
+      </c>
+      <c r="H219">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>2018</v>
       </c>
@@ -5268,8 +6588,14 @@
       <c r="F220">
         <v>1.48</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G220">
+        <v>69.75</v>
+      </c>
+      <c r="H220">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>2018</v>
       </c>
@@ -5288,8 +6614,14 @@
       <c r="F221">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G221">
+        <v>69.75</v>
+      </c>
+      <c r="H221">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>2018</v>
       </c>
@@ -5308,8 +6640,14 @@
       <c r="F222">
         <v>5.22</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G222">
+        <v>69.75</v>
+      </c>
+      <c r="H222">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>2018</v>
       </c>
@@ -5328,8 +6666,14 @@
       <c r="F223">
         <v>540.89</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G223">
+        <v>69.75</v>
+      </c>
+      <c r="H223">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>2018</v>
       </c>
@@ -5348,8 +6692,14 @@
       <c r="F224">
         <v>969.61</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G224">
+        <v>69.75</v>
+      </c>
+      <c r="H224">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>2018</v>
       </c>
@@ -5368,8 +6718,14 @@
       <c r="F225">
         <v>423.43</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G225">
+        <v>69.75</v>
+      </c>
+      <c r="H225">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>2018</v>
       </c>
@@ -5388,8 +6744,14 @@
       <c r="F226">
         <v>99.12</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G226">
+        <v>69.75</v>
+      </c>
+      <c r="H226">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>2018</v>
       </c>
@@ -5408,8 +6770,14 @@
       <c r="F227">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G227">
+        <v>69.75</v>
+      </c>
+      <c r="H227">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>2018</v>
       </c>
@@ -5428,8 +6796,14 @@
       <c r="F228">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G228">
+        <v>69.75</v>
+      </c>
+      <c r="H228">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>2018</v>
       </c>
@@ -5448,8 +6822,14 @@
       <c r="F229">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G229">
+        <v>69.75</v>
+      </c>
+      <c r="H229">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>2019</v>
       </c>
@@ -5468,8 +6848,14 @@
       <c r="F230">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G230">
+        <v>69.75</v>
+      </c>
+      <c r="H230">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>2019</v>
       </c>
@@ -5488,8 +6874,14 @@
       <c r="F231">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G231">
+        <v>69.75</v>
+      </c>
+      <c r="H231">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>2019</v>
       </c>
@@ -5508,8 +6900,14 @@
       <c r="F232">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G232">
+        <v>69.75</v>
+      </c>
+      <c r="H232">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>2019</v>
       </c>
@@ -5528,8 +6926,14 @@
       <c r="F233">
         <v>3.68</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G233">
+        <v>69.75</v>
+      </c>
+      <c r="H233">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>2019</v>
       </c>
@@ -5548,8 +6952,14 @@
       <c r="F234">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G234">
+        <v>69.75</v>
+      </c>
+      <c r="H234">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>2019</v>
       </c>
@@ -5568,8 +6978,14 @@
       <c r="F235">
         <v>454.13</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G235">
+        <v>69.75</v>
+      </c>
+      <c r="H235">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>2019</v>
       </c>
@@ -5588,8 +7004,14 @@
       <c r="F236">
         <v>1083.3</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G236">
+        <v>69.75</v>
+      </c>
+      <c r="H236">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>2019</v>
       </c>
@@ -5608,8 +7030,14 @@
       <c r="F237">
         <v>666.94</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G237">
+        <v>69.75</v>
+      </c>
+      <c r="H237">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>2019</v>
       </c>
@@ -5628,8 +7056,14 @@
       <c r="F238">
         <v>928.89</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G238">
+        <v>69.75</v>
+      </c>
+      <c r="H238">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>2019</v>
       </c>
@@ -5648,8 +7082,14 @@
       <c r="F239">
         <v>192.61</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G239">
+        <v>69.75</v>
+      </c>
+      <c r="H239">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>2019</v>
       </c>
@@ -5668,8 +7108,14 @@
       <c r="F240">
         <v>53.27</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G240">
+        <v>69.75</v>
+      </c>
+      <c r="H240">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>2019</v>
       </c>
@@ -5688,8 +7134,14 @@
       <c r="F241">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G241">
+        <v>69.75</v>
+      </c>
+      <c r="H241">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>2020</v>
       </c>
@@ -5708,8 +7160,14 @@
       <c r="F242">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G242">
+        <v>69.75</v>
+      </c>
+      <c r="H242">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>2020</v>
       </c>
@@ -5728,8 +7186,14 @@
       <c r="F243">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G243">
+        <v>69.75</v>
+      </c>
+      <c r="H243">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>2020</v>
       </c>
@@ -5748,8 +7212,14 @@
       <c r="F244">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G244">
+        <v>69.75</v>
+      </c>
+      <c r="H244">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>2020</v>
       </c>
@@ -5768,8 +7238,14 @@
       <c r="F245">
         <v>5.46</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G245">
+        <v>69.75</v>
+      </c>
+      <c r="H245">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>2020</v>
       </c>
@@ -5788,8 +7264,14 @@
       <c r="F246">
         <v>8.2899999999999991</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G246">
+        <v>69.75</v>
+      </c>
+      <c r="H246">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>2020</v>
       </c>
@@ -5808,8 +7290,14 @@
       <c r="F247">
         <v>462.71</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G247">
+        <v>69.75</v>
+      </c>
+      <c r="H247">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>2020</v>
       </c>
@@ -5828,8 +7316,14 @@
       <c r="F248">
         <v>781.13</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G248">
+        <v>69.75</v>
+      </c>
+      <c r="H248">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>2020</v>
       </c>
@@ -5848,8 +7342,14 @@
       <c r="F249">
         <v>1203.0899999999999</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G249">
+        <v>69.75</v>
+      </c>
+      <c r="H249">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>2020</v>
       </c>
@@ -5868,8 +7368,14 @@
       <c r="F250">
         <v>361.3</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G250">
+        <v>69.75</v>
+      </c>
+      <c r="H250">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>2020</v>
       </c>
@@ -5888,8 +7394,14 @@
       <c r="F251">
         <v>180.18</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G251">
+        <v>69.75</v>
+      </c>
+      <c r="H251">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>2020</v>
       </c>
@@ -5908,8 +7420,14 @@
       <c r="F252">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G252">
+        <v>69.75</v>
+      </c>
+      <c r="H252">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>2020</v>
       </c>
@@ -5927,6 +7445,12 @@
       </c>
       <c r="F253">
         <v>12.23</v>
+      </c>
+      <c r="G253">
+        <v>69.75</v>
+      </c>
+      <c r="H253">
+        <v>26.75</v>
       </c>
     </row>
   </sheetData>
